--- a/documenten/MVP gap analyse - 20200602.xlsx
+++ b/documenten/MVP gap analyse - 20200602.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mlconsultancy-my.sharepoint.com/personal/saskia_hoff_m-lc_nl/Documents/Klanten/VNG Realisatie/Huwelijksplanner/MVP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildenberg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{A4EA9020-3DF9-4E3A-AC2E-784392383F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E19DF63-2BCF-4F4B-9413-2F043095A311}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA145A-2F41-494B-B57C-A3B5B4C80605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65596325-0061-4B45-AD63-D9712BE14107}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{65596325-0061-4B45-AD63-D9712BE14107}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP overzicht" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="327">
   <si>
     <t>Bruidspaar</t>
   </si>
@@ -965,18 +965,9 @@
     <t>Nee</t>
   </si>
   <si>
-    <t>483, 424, 550</t>
-  </si>
-  <si>
     <t>545 (L), 544</t>
   </si>
   <si>
-    <t>636, 537, 534</t>
-  </si>
-  <si>
-    <t>587, 656, 521, 227 (M), 664, 633, 632, 531</t>
-  </si>
-  <si>
     <t>89, 92, 664, 633, 632, 531</t>
   </si>
   <si>
@@ -989,12 +980,6 @@
     <t>637 (M)638, 639, 481(M), 532, 531</t>
   </si>
   <si>
-    <t>640, 482 (M), 531</t>
-  </si>
-  <si>
-    <t>484 (XL),342 (L),309 (M), 667, 529</t>
-  </si>
-  <si>
     <t>Realisatie</t>
   </si>
   <si>
@@ -1038,6 +1023,33 @@
   </si>
   <si>
     <t xml:space="preserve">Overbrengen/vernietigen archief </t>
+  </si>
+  <si>
+    <t>Issue(s)</t>
+  </si>
+  <si>
+    <t>484 (XL),342 (L),309 (M), 667, 529, 528, 527</t>
+  </si>
+  <si>
+    <t>587, 656, 521, 227 (M), 664, 633, 632, 531, 527</t>
+  </si>
+  <si>
+    <t>636, 537, 534, 524, 523</t>
+  </si>
+  <si>
+    <t>537, 534</t>
+  </si>
+  <si>
+    <t>483, 424, 550, 511</t>
+  </si>
+  <si>
+    <t>510, 511</t>
+  </si>
+  <si>
+    <t>640, 482 (M), 531, 506</t>
+  </si>
+  <si>
+    <t>546, 497</t>
   </si>
 </sst>
 </file>
@@ -1607,40 +1619,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A2E79-A2D8-41ED-A3A4-966E7DE9D9DA}">
   <dimension ref="A2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="4"/>
-    <col min="4" max="4" width="26.08984375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="61.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="26.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="33" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.6328125" style="2"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1648,9 +1660,9 @@
       <c r="C3" s="14"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>293</v>
@@ -1665,9 +1677,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>293</v>
@@ -1691,9 +1703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>297</v>
@@ -1704,7 +1716,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>69</v>
@@ -1730,7 +1742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>70</v>
@@ -1756,7 +1768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>72</v>
@@ -1782,7 +1794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>71</v>
@@ -1808,9 +1820,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>293</v>
@@ -1825,9 +1837,9 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>297</v>
@@ -1836,9 +1848,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>297</v>
@@ -1850,9 +1862,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>293</v>
@@ -1867,16 +1879,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -1908,7 +1920,7 @@
       </c>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1929,7 @@
       <c r="D18" s="25"/>
       <c r="E18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1931,10 +1943,10 @@
         <v>56</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +1954,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1956,13 +1968,13 @@
         <v>57</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1976,13 +1988,13 @@
         <v>57</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1995,11 +2007,14 @@
       <c r="D23" s="23" t="s">
         <v>58</v>
       </c>
+      <c r="E23" s="33" t="s">
+        <v>322</v>
+      </c>
       <c r="F23" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -2027,18 +2042,18 @@
         <v>79</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2051,8 +2066,11 @@
       <c r="D27" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="E27" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -2097,10 +2115,10 @@
         <v>83</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -2117,15 +2135,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2162,7 @@
       <c r="C34" s="16"/>
       <c r="D34" s="27"/>
     </row>
-    <row r="35" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -2157,14 +2175,14 @@
       <c r="D35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="33">
-        <v>546</v>
+      <c r="E35" s="33" t="s">
+        <v>326</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -2181,9 +2199,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>293</v>
@@ -2198,7 +2216,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
@@ -2243,15 +2261,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -2293,18 +2311,18 @@
         <v>87</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>28</v>
       </c>
@@ -2312,7 +2330,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -2380,7 +2398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
@@ -2404,7 +2422,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>32</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>34</v>
       </c>
@@ -2437,7 +2455,7 @@
       <c r="C56" s="17"/>
       <c r="D56" s="28"/>
     </row>
-    <row r="57" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="61.2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
@@ -2454,7 +2472,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
@@ -2536,7 +2554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>41</v>
       </c>
@@ -2544,7 +2562,7 @@
       <c r="C63" s="18"/>
       <c r="D63" s="29"/>
     </row>
-    <row r="64" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>42</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
@@ -2609,7 +2627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>46</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
     </row>
@@ -2674,18 +2692,18 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>292</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>293</v>
       </c>
@@ -2701,13 +2719,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>293</v>
       </c>
@@ -2715,13 +2733,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>293</v>
       </c>
@@ -2729,13 +2747,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>293</v>
       </c>
@@ -2743,13 +2761,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>293</v>
       </c>
@@ -2757,13 +2775,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>293</v>
       </c>
@@ -2771,13 +2789,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>293</v>
       </c>
@@ -2785,13 +2803,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>293</v>
       </c>
@@ -2799,13 +2817,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>293</v>
       </c>
@@ -2813,13 +2831,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>297</v>
       </c>
@@ -2827,13 +2845,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>293</v>
       </c>
@@ -2841,13 +2859,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>293</v>
       </c>
@@ -2855,13 +2873,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
         <v>293</v>
       </c>
@@ -2869,13 +2887,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
         <v>293</v>
       </c>
@@ -2883,13 +2901,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
         <v>293</v>
       </c>
@@ -2897,13 +2915,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>293</v>
       </c>
@@ -2911,13 +2929,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="40" t="s">
         <v>293</v>
       </c>
@@ -2925,13 +2943,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
         <v>293</v>
       </c>
@@ -2939,13 +2957,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
         <v>293</v>
       </c>
@@ -2953,13 +2971,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>293</v>
       </c>
@@ -2967,13 +2985,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
         <v>293</v>
       </c>
@@ -2981,61 +2999,69 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B71" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B74" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>293</v>
       </c>
@@ -3043,13 +3069,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
         <v>293</v>
       </c>
@@ -3057,13 +3083,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>293</v>
       </c>
@@ -3071,90 +3097,96 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B86" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B89" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="B93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
         <v>293</v>
       </c>
@@ -3162,13 +3194,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="40" t="s">
         <v>293</v>
       </c>
@@ -3176,13 +3208,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="40" t="s">
         <v>293</v>
       </c>
@@ -3190,13 +3222,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="40" t="s">
         <v>293</v>
       </c>
@@ -3204,49 +3236,49 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
         <v>293</v>
       </c>
@@ -3254,97 +3286,97 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="40" t="s">
         <v>293</v>
       </c>
@@ -3352,49 +3384,49 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="40" t="s">
         <v>293</v>
       </c>
@@ -3402,13 +3434,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="40" t="s">
         <v>293</v>
       </c>
@@ -3416,13 +3448,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
         <v>293</v>
       </c>
@@ -3430,167 +3462,167 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="40" t="s">
         <v>293</v>
       </c>
@@ -3598,25 +3630,25 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="40" t="s">
         <v>293</v>
       </c>
@@ -3624,13 +3656,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="40" t="s">
         <v>293</v>
       </c>
@@ -3638,13 +3670,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="40" t="s">
         <v>293</v>
       </c>
@@ -3652,13 +3684,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="40" t="s">
         <v>293</v>
       </c>
@@ -3666,49 +3698,49 @@
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="40" t="s">
         <v>293</v>
       </c>
@@ -3716,49 +3748,49 @@
         <v>276</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="40" t="s">
         <v>293</v>
       </c>
@@ -3766,13 +3798,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="40" t="s">
         <v>293</v>
       </c>
@@ -3780,13 +3812,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="40" t="s">
         <v>293</v>
       </c>
@@ -3794,103 +3826,103 @@
         <v>282</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" t="s">
         <v>273</v>
@@ -3898,28 +3930,61 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A108:A109"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A35:A36"/>
@@ -3936,61 +4001,28 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4005,12 +4037,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>66</v>
       </c>
@@ -4018,7 +4050,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>642</v>
       </c>
@@ -4026,7 +4058,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>637</v>
       </c>
@@ -4034,7 +4066,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>638</v>
       </c>
@@ -4042,7 +4074,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>639</v>
       </c>
@@ -4050,7 +4082,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>640</v>
       </c>
@@ -4058,7 +4090,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>342</v>
       </c>
@@ -4066,7 +4098,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>309</v>
       </c>
@@ -4074,7 +4106,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>545</v>
       </c>
@@ -4082,7 +4114,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>184</v>
       </c>
@@ -4090,7 +4122,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>249</v>
       </c>
@@ -4098,7 +4130,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>443</v>
       </c>
@@ -4112,6 +4144,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056CF39C1C6CABB4091BF83C884289FD5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1657f4c9f4562faa7d7fc41f5076e3ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b3367d5-cc86-4d73-b388-31d5d046a569" xmlns:ns4="fb630e80-cc46-47c0-b0ec-790451d9ee23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f1c608fb4f4b8eb53000e0fd4bceedf" ns3:_="" ns4:_="">
     <xsd:import namespace="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
@@ -4334,36 +4381,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA394C5-0908-4E68-B0F8-D711CC404782}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEB1ACF-6728-4AFE-B33B-A15C73EDA5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
-    <ds:schemaRef ds:uri="fb630e80-cc46-47c0-b0ec-790451d9ee23"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4386,9 +4407,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEB1ACF-6728-4AFE-B33B-A15C73EDA5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA394C5-0908-4E68-B0F8-D711CC404782}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
+    <ds:schemaRef ds:uri="fb630e80-cc46-47c0-b0ec-790451d9ee23"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documenten/MVP gap analyse - 20200602.xlsx
+++ b/documenten/MVP gap analyse - 20200602.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildenberg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA145A-2F41-494B-B57C-A3B5B4C80605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1788B1F2-B61B-429F-A89B-6E01203EE672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{65596325-0061-4B45-AD63-D9712BE14107}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="332">
   <si>
     <t>Bruidspaar</t>
   </si>
@@ -371,9 +371,6 @@
     <t>516 (L)</t>
   </si>
   <si>
-    <t>561(L)</t>
-  </si>
-  <si>
     <t>137, 172</t>
   </si>
   <si>
@@ -977,9 +974,6 @@
     <t>642, 664, 633, 632, 531</t>
   </si>
   <si>
-    <t>637 (M)638, 639, 481(M), 532, 531</t>
-  </si>
-  <si>
     <t>Realisatie</t>
   </si>
   <si>
@@ -1028,9 +1022,6 @@
     <t>Issue(s)</t>
   </si>
   <si>
-    <t>484 (XL),342 (L),309 (M), 667, 529, 528, 527</t>
-  </si>
-  <si>
     <t>587, 656, 521, 227 (M), 664, 633, 632, 531, 527</t>
   </si>
   <si>
@@ -1050,6 +1041,30 @@
   </si>
   <si>
     <t>546, 497</t>
+  </si>
+  <si>
+    <t>561(L), 492</t>
+  </si>
+  <si>
+    <t>Nee (regel 35?)</t>
+  </si>
+  <si>
+    <t>484 (XL),342 (L),309 (M), 667, 529, 528, 527, 485</t>
+  </si>
+  <si>
+    <t>Nee (nu wel regel 30)</t>
+  </si>
+  <si>
+    <t>637 (M)638, 639, 481(M), 532, 531, 480</t>
+  </si>
+  <si>
+    <t>476, 480, 481, 479</t>
+  </si>
+  <si>
+    <t>Nee (nu wel regel 58, voldoende?</t>
+  </si>
+  <si>
+    <t>432, 477</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1635,10 @@
   <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1639,16 +1654,16 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1662,10 +1677,10 @@
     </row>
     <row r="4" spans="1:8" s="30" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -1674,15 +1689,15 @@
         <v>95</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="20">
         <v>50</v>
@@ -1705,10 +1720,10 @@
     </row>
     <row r="6" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="20"/>
       <c r="E6" s="35"/>
@@ -1721,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="20">
         <v>75</v>
@@ -1730,7 +1745,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>69</v>
@@ -1747,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="20">
         <v>75</v>
@@ -1756,7 +1771,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>70</v>
@@ -1773,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" s="20">
         <v>75</v>
@@ -1782,7 +1797,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>72</v>
@@ -1799,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="20">
         <v>75</v>
@@ -1808,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>71</v>
@@ -1822,10 +1837,10 @@
     </row>
     <row r="11" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -1839,10 +1854,10 @@
     </row>
     <row r="12" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>52</v>
@@ -1850,10 +1865,10 @@
     </row>
     <row r="13" spans="1:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>52</v>
@@ -1864,10 +1879,10 @@
     </row>
     <row r="14" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="20">
         <v>75</v>
@@ -1881,10 +1896,10 @@
     </row>
     <row r="15" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="20"/>
     </row>
@@ -1893,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" s="4">
         <v>50</v>
@@ -1913,7 +1928,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>97</v>
@@ -1934,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C19" s="4">
         <v>75</v>
@@ -1943,7 +1958,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -1959,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="4">
         <v>25</v>
@@ -1968,7 +1983,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>77</v>
@@ -1979,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="4">
         <v>25</v>
@@ -1988,7 +2003,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>77</v>
@@ -1999,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="4">
         <v>75</v>
@@ -2008,7 +2023,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>78</v>
@@ -2019,13 +2034,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="4">
         <v>75</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>59</v>
+      </c>
+      <c r="E24" s="33">
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.6" x14ac:dyDescent="0.2">
@@ -2033,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="4">
         <v>25</v>
@@ -2042,15 +2060,15 @@
         <v>79</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.2">
@@ -2058,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" s="4">
         <v>100</v>
@@ -2067,7 +2085,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2075,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="4">
         <v>50</v>
@@ -2092,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>52</v>
@@ -2106,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -2115,7 +2133,7 @@
         <v>83</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2123,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -2137,10 +2155,10 @@
     </row>
     <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2148,7 +2166,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -2167,7 +2185,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" s="4">
         <v>75</v>
@@ -2176,7 +2194,7 @@
         <v>61</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>62</v>
@@ -2187,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="4">
         <v>50</v>
@@ -2201,10 +2219,10 @@
     </row>
     <row r="37" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" s="4">
         <v>50</v>
@@ -2212,8 +2230,8 @@
       <c r="D37" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="33">
-        <v>432</v>
+      <c r="E37" s="33" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2221,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2238,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2247,7 +2265,7 @@
         <v>85</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2255,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>52</v>
@@ -2263,10 +2281,10 @@
     </row>
     <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2274,7 +2292,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="4">
         <v>75</v>
@@ -2288,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C43" s="4">
         <v>75</v>
@@ -2302,7 +2320,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="4">
         <v>50</v>
@@ -2311,15 +2329,15 @@
         <v>87</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2335,7 +2353,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="4">
         <v>50</v>
@@ -2352,7 +2370,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C48" s="4">
         <v>50</v>
@@ -2369,7 +2387,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="4">
         <v>50</v>
@@ -2386,7 +2404,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" s="4">
         <v>50</v>
@@ -2403,7 +2421,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2411,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2419,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2427,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2435,7 +2453,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C55" s="4">
         <v>50</v>
@@ -2460,7 +2478,7 @@
         <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C57" s="4">
         <v>25</v>
@@ -2469,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2477,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" s="4">
         <v>50</v>
@@ -2485,8 +2503,8 @@
       <c r="D58" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="33">
-        <v>476</v>
+      <c r="E58" s="33" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2494,7 +2512,7 @@
         <v>37</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C59" s="4">
         <v>75</v>
@@ -2511,7 +2529,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2528,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2537,7 +2555,7 @@
         <v>63</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
@@ -2545,7 +2563,7 @@
         <v>40</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2567,13 +2585,13 @@
         <v>42</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C64" s="4">
         <v>75</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" s="33">
         <v>249</v>
@@ -2584,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2592,13 +2610,13 @@
         <v>43</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66" s="4">
         <v>75</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E66" s="33">
         <v>269</v>
@@ -2609,7 +2627,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>52</v>
@@ -2636,7 +2654,7 @@
         <v>75</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="33">
         <v>443</v>
@@ -2693,8 +2711,8 @@
   <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:A97"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,791 +2723,807 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40" t="s">
+        <v>325</v>
+      </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40" t="s">
+        <v>327</v>
+      </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40" t="s">
+        <v>330</v>
+      </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40" t="s">
+        <v>296</v>
+      </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3498,12 +3532,12 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3512,12 +3546,12 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3529,407 +3563,484 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B217" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B250" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A241:A242"/>
     <mergeCell ref="A274:A275"/>
     <mergeCell ref="A277:A278"/>
     <mergeCell ref="A193:A194"/>
@@ -3946,83 +4057,6 @@
     <mergeCell ref="A244:A245"/>
     <mergeCell ref="A247:A248"/>
     <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4047,7 +4081,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4055,7 +4089,7 @@
         <v>642</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4063,7 +4097,7 @@
         <v>637</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4071,7 +4105,7 @@
         <v>638</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4079,7 +4113,7 @@
         <v>639</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4087,7 +4121,7 @@
         <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4095,7 +4129,7 @@
         <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4103,7 +4137,7 @@
         <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4111,7 +4145,7 @@
         <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4119,7 +4153,7 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4127,7 +4161,7 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4135,7 +4169,7 @@
         <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4144,21 +4178,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056CF39C1C6CABB4091BF83C884289FD5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1657f4c9f4562faa7d7fc41f5076e3ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b3367d5-cc86-4d73-b388-31d5d046a569" xmlns:ns4="fb630e80-cc46-47c0-b0ec-790451d9ee23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f1c608fb4f4b8eb53000e0fd4bceedf" ns3:_="" ns4:_="">
     <xsd:import namespace="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
@@ -4381,10 +4400,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEB1ACF-6728-4AFE-B33B-A15C73EDA5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA394C5-0908-4E68-B0F8-D711CC404782}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
+    <ds:schemaRef ds:uri="fb630e80-cc46-47c0-b0ec-790451d9ee23"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4407,20 +4452,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA394C5-0908-4E68-B0F8-D711CC404782}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEB1ACF-6728-4AFE-B33B-A15C73EDA5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b3367d5-cc86-4d73-b388-31d5d046a569"/>
-    <ds:schemaRef ds:uri="fb630e80-cc46-47c0-b0ec-790451d9ee23"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documenten/MVP gap analyse - 20200602.xlsx
+++ b/documenten/MVP gap analyse - 20200602.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildenberg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwildenberg\OneDrive - Gemeente Hoorn\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1788B1F2-B61B-429F-A89B-6E01203EE672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{1788B1F2-B61B-429F-A89B-6E01203EE672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A6F49DF-B62E-44E3-94B8-8908C2FC0F54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{65596325-0061-4B45-AD63-D9712BE14107}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="336">
   <si>
     <t>Bruidspaar</t>
   </si>
@@ -371,9 +371,6 @@
     <t>516 (L)</t>
   </si>
   <si>
-    <t>137, 172</t>
-  </si>
-  <si>
     <t>184 (L)</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
     <t>Vooronderzoek implementeren NLX op de Huwelijksplanner Implementatie MVP Size M Techniek</t>
   </si>
   <si>
-    <t>Wastraat MVP</t>
-  </si>
-  <si>
     <t>Als Product Owner wil ik dat de inwoner weet dat een reservering/melding alleen met DigiD kan gebeuren. MVP Prio H ( hoog) UX team</t>
   </si>
   <si>
@@ -968,9 +962,6 @@
     <t>89, 92, 664, 633, 632, 531</t>
   </si>
   <si>
-    <t>551, 664, 633, 632, 531</t>
-  </si>
-  <si>
     <t>642, 664, 633, 632, 531</t>
   </si>
   <si>
@@ -1022,49 +1013,70 @@
     <t>Issue(s)</t>
   </si>
   <si>
-    <t>587, 656, 521, 227 (M), 664, 633, 632, 531, 527</t>
-  </si>
-  <si>
     <t>636, 537, 534, 524, 523</t>
   </si>
   <si>
     <t>537, 534</t>
   </si>
   <si>
-    <t>483, 424, 550, 511</t>
-  </si>
-  <si>
     <t>510, 511</t>
   </si>
   <si>
-    <t>640, 482 (M), 531, 506</t>
-  </si>
-  <si>
-    <t>546, 497</t>
-  </si>
-  <si>
     <t>561(L), 492</t>
   </si>
   <si>
     <t>Nee (regel 35?)</t>
   </si>
   <si>
-    <t>484 (XL),342 (L),309 (M), 667, 529, 528, 527, 485</t>
-  </si>
-  <si>
     <t>Nee (nu wel regel 30)</t>
   </si>
   <si>
-    <t>637 (M)638, 639, 481(M), 532, 531, 480</t>
-  </si>
-  <si>
     <t>476, 480, 481, 479</t>
   </si>
   <si>
     <t>Nee (nu wel regel 58, voldoende?</t>
   </si>
   <si>
-    <t>432, 477</t>
+    <t>640, 482 (M), 531, 506, 435</t>
+  </si>
+  <si>
+    <t>546, 497, 434</t>
+  </si>
+  <si>
+    <t>587, 656, 521, 227 (M), 664, 633, 632, 531, 527, 441, 409</t>
+  </si>
+  <si>
+    <t>Wasstraat MVP</t>
+  </si>
+  <si>
+    <t>443, 293</t>
+  </si>
+  <si>
+    <t>637 (M)638, 639, 481(M), 532, 531, 480, 435, 142</t>
+  </si>
+  <si>
+    <t>137, 172, 132</t>
+  </si>
+  <si>
+    <t>484 (XL),342 (L),309 (M), 667, 529, 528, 527, 485, 97</t>
+  </si>
+  <si>
+    <t>551, 664, 633, 632, 531, 94, 63</t>
+  </si>
+  <si>
+    <t>483, 424, 550, 511, 353, 329, 45</t>
+  </si>
+  <si>
+    <t>483, 423, 45</t>
+  </si>
+  <si>
+    <t>432, 477, 44</t>
+  </si>
+  <si>
+    <t>431, 43</t>
+  </si>
+  <si>
+    <t>442, 41</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,6 +1308,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1635,10 +1650,10 @@
   <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1654,16 +1669,16 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1677,10 +1692,10 @@
     </row>
     <row r="4" spans="1:8" s="30" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -1689,15 +1704,15 @@
         <v>95</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="20">
         <v>50</v>
@@ -1720,10 +1735,10 @@
     </row>
     <row r="6" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6" s="20"/>
       <c r="E6" s="35"/>
@@ -1736,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="20">
         <v>75</v>
@@ -1745,7 +1760,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>69</v>
@@ -1762,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="20">
         <v>75</v>
@@ -1771,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>70</v>
@@ -1788,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="20">
         <v>75</v>
@@ -1796,8 +1811,8 @@
       <c r="D9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>299</v>
+      <c r="E9" s="35" t="s">
+        <v>330</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>72</v>
@@ -1814,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10" s="20">
         <v>75</v>
@@ -1823,7 +1838,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>71</v>
@@ -1837,10 +1852,10 @@
     </row>
     <row r="11" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -1854,10 +1869,10 @@
     </row>
     <row r="12" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>52</v>
@@ -1865,10 +1880,10 @@
     </row>
     <row r="13" spans="1:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>52</v>
@@ -1879,10 +1894,10 @@
     </row>
     <row r="14" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="20">
         <v>75</v>
@@ -1896,10 +1911,10 @@
     </row>
     <row r="15" spans="1:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C15" s="20"/>
     </row>
@@ -1908,7 +1923,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="4">
         <v>50</v>
@@ -1928,7 +1943,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>97</v>
@@ -1949,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="4">
         <v>75</v>
@@ -1958,7 +1973,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -1974,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C21" s="4">
         <v>25</v>
@@ -1983,7 +1998,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>77</v>
@@ -1994,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C22" s="4">
         <v>25</v>
@@ -2014,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C23" s="4">
         <v>75</v>
@@ -2023,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>78</v>
@@ -2034,7 +2049,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C24" s="4">
         <v>75</v>
@@ -2051,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="4">
         <v>25</v>
@@ -2059,16 +2074,16 @@
       <c r="D25" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>320</v>
+      <c r="E25" s="35" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.6" x14ac:dyDescent="0.2">
@@ -2076,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C27" s="4">
         <v>100</v>
@@ -2085,7 +2100,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2093,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C28" s="4">
         <v>50</v>
@@ -2101,8 +2116,8 @@
       <c r="D28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="33">
-        <v>483</v>
+      <c r="E28" s="33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2110,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>52</v>
@@ -2124,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -2133,7 +2148,7 @@
         <v>83</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2141,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -2155,10 +2170,10 @@
     </row>
     <row r="32" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2166,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>52</v>
@@ -2185,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C35" s="4">
         <v>75</v>
@@ -2205,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C36" s="4">
         <v>50</v>
@@ -2213,16 +2228,16 @@
       <c r="D36" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="33">
-        <v>431</v>
+      <c r="E36" s="33" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C37" s="4">
         <v>50</v>
@@ -2231,7 +2246,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2239,7 +2254,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2247,8 +2262,8 @@
       <c r="D38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="33">
-        <v>442</v>
+      <c r="E38" s="33" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
@@ -2256,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2265,7 +2280,7 @@
         <v>85</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2273,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>52</v>
@@ -2281,10 +2296,10 @@
     </row>
     <row r="41" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2292,13 +2307,16 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C42" s="4">
         <v>75</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>64</v>
+      </c>
+      <c r="E42" s="33">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2306,13 +2324,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C43" s="4">
         <v>75</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>86</v>
+      </c>
+      <c r="E43" s="33">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2320,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C44" s="4">
         <v>50</v>
@@ -2329,15 +2350,15 @@
         <v>87</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
@@ -2353,7 +2374,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="4">
         <v>50</v>
@@ -2370,7 +2391,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C48" s="4">
         <v>50</v>
@@ -2387,7 +2408,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C49" s="4">
         <v>50</v>
@@ -2404,7 +2425,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C50" s="4">
         <v>50</v>
@@ -2421,7 +2442,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2429,7 +2450,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2437,7 +2458,7 @@
         <v>31</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2445,7 +2466,7 @@
         <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2453,7 +2474,7 @@
         <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C55" s="4">
         <v>50</v>
@@ -2478,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C57" s="4">
         <v>25</v>
@@ -2487,7 +2508,7 @@
         <v>90</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="22.8" x14ac:dyDescent="0.2">
@@ -2495,7 +2516,7 @@
         <v>36</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C58" s="4">
         <v>50</v>
@@ -2504,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.2">
@@ -2512,7 +2533,7 @@
         <v>37</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C59" s="4">
         <v>75</v>
@@ -2529,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2546,7 +2567,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2555,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
@@ -2563,7 +2584,7 @@
         <v>40</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2585,13 +2606,13 @@
         <v>42</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C64" s="4">
         <v>75</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="33">
         <v>249</v>
@@ -2602,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.2">
@@ -2610,13 +2631,13 @@
         <v>43</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C66" s="4">
         <v>75</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="33">
         <v>269</v>
@@ -2627,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>52</v>
@@ -2654,10 +2675,10 @@
         <v>75</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="33">
-        <v>443</v>
+        <v>103</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.8" x14ac:dyDescent="0.2">
@@ -2708,11 +2729,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5A0975-4574-47CB-8CE1-3F1776BF00BE}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135:A136"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,1247 +2744,1328 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>292</v>
+      <c r="A2" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
+      <c r="B30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
+      <c r="B36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
+      <c r="B39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="41"/>
+      <c r="B42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+      <c r="B45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
+      <c r="B57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="41"/>
+      <c r="B60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+      <c r="B63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="41"/>
+      <c r="B66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="41"/>
+      <c r="B69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
+      <c r="B72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
+      <c r="B75" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="41"/>
+      <c r="B78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="41"/>
+      <c r="B81" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="41"/>
+      <c r="B84" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="41"/>
+      <c r="B87" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="41"/>
+      <c r="B90" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
-      <c r="B90" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
-        <v>292</v>
+      <c r="A93" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="41"/>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="41"/>
+      <c r="B97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="41"/>
+      <c r="B100" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="41"/>
+      <c r="B103" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="41"/>
+      <c r="B106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="41"/>
+      <c r="B109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="41"/>
+      <c r="B112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="41"/>
+      <c r="B115" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B117" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="41"/>
+      <c r="B118" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="41"/>
+      <c r="B121" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="41"/>
+      <c r="B124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="41"/>
+      <c r="B130" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="41"/>
+      <c r="B133" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
-      <c r="B135" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
-      <c r="B136" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="41"/>
+      <c r="B139" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
-      <c r="B138" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
-      <c r="B139" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="41"/>
+      <c r="B142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
-      <c r="B141" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
-      <c r="B142" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="41"/>
+      <c r="B145" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="40"/>
-      <c r="B144" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="40"/>
-      <c r="B145" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="41"/>
+      <c r="B148" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
-      <c r="B147" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
-      <c r="B148" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="41"/>
+      <c r="B151" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="41"/>
+      <c r="B154" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="40"/>
-      <c r="B151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="40"/>
-      <c r="B153" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="40"/>
-      <c r="B154" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="41"/>
+      <c r="B157" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="40"/>
-      <c r="B156" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B159" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="40"/>
-      <c r="B157" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="41"/>
+      <c r="B160" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="40"/>
-      <c r="B159" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="40"/>
-      <c r="B160" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="41"/>
+      <c r="B163" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="40"/>
-      <c r="B163" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="41"/>
+      <c r="B166" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B168" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="40"/>
-      <c r="B166" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="41"/>
+      <c r="B169" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B171" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="40"/>
-      <c r="B169" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="41"/>
+      <c r="B172" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="40"/>
-      <c r="B171" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B174" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="40"/>
-      <c r="B172" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="40"/>
-      <c r="B174" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="40"/>
-      <c r="B175" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="40"/>
+      <c r="A177" s="41" t="s">
+        <v>290</v>
+      </c>
       <c r="B177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="41"/>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
+      <c r="A180" s="41" t="s">
+        <v>294</v>
+      </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="41"/>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="40"/>
+      <c r="A183" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B183" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="40"/>
+      <c r="A184" s="41"/>
       <c r="B184" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
-      <c r="B185" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="41"/>
+      <c r="B187" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
-      <c r="B187" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
-      <c r="B188" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B189" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="41"/>
+      <c r="B190" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="40"/>
-      <c r="B190" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
-      <c r="B191" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="41"/>
+      <c r="B193" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="40"/>
-      <c r="B193" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B195" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="40"/>
-      <c r="B194" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="41"/>
+      <c r="B196" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="40"/>
-      <c r="B196" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B198" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="40"/>
-      <c r="B197" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="41"/>
+      <c r="B199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="40"/>
-      <c r="B199" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B201" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="40"/>
-      <c r="B200" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="41"/>
+      <c r="B202" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
-      <c r="B202" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B204" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="40"/>
-      <c r="B203" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="41"/>
+      <c r="B205" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="40"/>
-      <c r="B205" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B207" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="40"/>
-      <c r="B206" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="41"/>
+      <c r="B208" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B208" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B210" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="41"/>
+      <c r="B211" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B213" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
-      <c r="B209" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="40"/>
-      <c r="B211" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="41"/>
+      <c r="B214" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
-      <c r="B212" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B214" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="41"/>
+      <c r="B217" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B219" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="40"/>
-      <c r="B215" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B217" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="41"/>
+      <c r="B220" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B222" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="40"/>
-      <c r="B218" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="41"/>
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B225" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="40"/>
-      <c r="B221" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="41"/>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B228" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="41"/>
+      <c r="B229" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="40"/>
-      <c r="B224" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="40"/>
-      <c r="B226" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B231" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="41"/>
+      <c r="B232" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="40"/>
-      <c r="B227" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="40"/>
-      <c r="B229" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B234" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="40"/>
-      <c r="B230" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="41"/>
+      <c r="B235" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="40"/>
-      <c r="B232" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B237" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="40"/>
-      <c r="B233" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="41"/>
+      <c r="B238" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B240" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="40"/>
-      <c r="B236" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="41"/>
+      <c r="B241" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="40"/>
-      <c r="B238" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B243" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="40"/>
-      <c r="B239" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="41"/>
+      <c r="B244" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="40"/>
-      <c r="B241" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B246" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="40"/>
-      <c r="B242" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="41"/>
+      <c r="B247" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="40"/>
-      <c r="B244" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B249" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="40"/>
-      <c r="B245" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="41"/>
+      <c r="B250" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B247" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B252" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="40"/>
-      <c r="B248" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="41"/>
+      <c r="B253" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B255" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="40"/>
-      <c r="B251" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="41"/>
+      <c r="B256" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B258" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="40"/>
-      <c r="B254" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="41"/>
+      <c r="B259" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="40"/>
-      <c r="B256" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B261" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="40"/>
-      <c r="B257" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="41"/>
+      <c r="B262" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="40"/>
-      <c r="B259" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B264" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="40"/>
-      <c r="B260" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="41"/>
+      <c r="B265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="40"/>
-      <c r="B262" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B267" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="40"/>
-      <c r="B263" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="41"/>
+      <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="40"/>
-      <c r="B265" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B270" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="40"/>
-      <c r="B266" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="41"/>
+      <c r="B271" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="40"/>
-      <c r="B268" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B273" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="40"/>
-      <c r="B269" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="41"/>
+      <c r="B274" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="40"/>
-      <c r="B271" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B276" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="40"/>
-      <c r="B272" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="41"/>
+      <c r="B277" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="40"/>
-      <c r="B274" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="40"/>
-      <c r="B275" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="40"/>
-      <c r="B277" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="40"/>
-      <c r="B278" t="s">
-        <v>272</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="92">
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A183:A184"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A26:A27"/>
@@ -4002,7 +4104,6 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A176:A177"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A174:A175"/>
@@ -4023,40 +4124,37 @@
     <mergeCell ref="A144:A145"/>
     <mergeCell ref="A141:A142"/>
     <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A249:A250"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4081,7 +4179,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4089,7 +4187,7 @@
         <v>642</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4195,7 @@
         <v>637</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,7 +4203,7 @@
         <v>638</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4113,7 +4211,7 @@
         <v>639</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +4219,7 @@
         <v>640</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4129,7 +4227,7 @@
         <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4137,7 +4235,7 @@
         <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4145,7 +4243,7 @@
         <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4153,7 +4251,7 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4161,7 +4259,7 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4169,7 +4267,7 @@
         <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
